--- a/GasPrices.xlsx
+++ b/GasPrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\690 - Capstone Project\04 Working Directory (Codes)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258A0296-896C-4D21-B092-DA42115C702A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCF771D-F4E5-4A9D-9ABC-395F694C4223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E6E46192-6C7E-477B-A148-026329ED3B34}"/>
   </bookViews>
@@ -417,13 +417,15 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -442,378 +444,378 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>41805</v>
+        <v>44089</v>
       </c>
       <c r="B2">
-        <v>3.766</v>
+        <v>2.274</v>
       </c>
       <c r="C2">
-        <v>6.5789098996108599</v>
+        <v>5.7426209358437088</v>
       </c>
       <c r="D2">
-        <v>0.9546810411398633</v>
+        <v>1.5771921323985885</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>41835</v>
+        <v>44058</v>
       </c>
       <c r="B3">
-        <v>3.6880000000000002</v>
+        <v>2.2719999999999998</v>
       </c>
       <c r="C3">
-        <v>6.6510159991285471</v>
+        <v>5.7199675158870189</v>
       </c>
       <c r="D3">
-        <v>0.9546810411398633</v>
+        <v>1.4487530851112151</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>41866</v>
+        <v>44027</v>
       </c>
       <c r="B4">
-        <v>3.5649999999999999</v>
+        <v>2.2719999999999998</v>
       </c>
       <c r="C4">
-        <v>6.5571590289634498</v>
+        <v>5.6378963556853643</v>
       </c>
       <c r="D4">
-        <v>0.9546810411398633</v>
+        <v>1.4192268673440029</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>41897</v>
+        <v>43997</v>
       </c>
       <c r="B5">
-        <v>3.484</v>
+        <v>2.17</v>
       </c>
       <c r="C5">
-        <v>6.5187937006720693</v>
+        <v>5.3684167834341912</v>
       </c>
       <c r="D5">
-        <v>0.9546810411398633</v>
+        <v>1.2460063897763576</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>41927</v>
+        <v>43966</v>
       </c>
       <c r="B6">
-        <v>3.2549999999999999</v>
+        <v>1.9610000000000001</v>
       </c>
       <c r="C6">
-        <v>6.429726863232947</v>
+        <v>5.3148937098259816</v>
       </c>
       <c r="D6">
-        <v>0.9546810411398633</v>
+        <v>1.2154959647502384</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>41958</v>
+        <v>43936</v>
       </c>
       <c r="B7">
-        <v>2.9969999999999999</v>
+        <v>1.9379999999999999</v>
       </c>
       <c r="C7">
-        <v>6.2125914861521627</v>
+        <v>5.5274644390675034</v>
       </c>
       <c r="D7">
-        <v>0.9546810411398633</v>
+        <v>1.2302590736338446</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>41988</v>
+        <v>43905</v>
       </c>
       <c r="B8">
-        <v>2.6320000000000001</v>
+        <v>2.3290000000000002</v>
       </c>
       <c r="C8">
-        <v>5.8953080197213081</v>
+        <v>6.0990778841797759</v>
       </c>
       <c r="D8">
-        <v>0.9546810411398633</v>
+        <v>1.4271005254152596</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>42019</v>
+        <v>43876</v>
       </c>
       <c r="B9">
-        <v>2.2080000000000002</v>
+        <v>2.5329999999999999</v>
       </c>
       <c r="C9">
-        <v>5.5008260167512377</v>
+        <v>6.2683886416624253</v>
       </c>
       <c r="D9">
-        <v>0.9546810411398633</v>
+        <v>1.413977761963165</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>42050</v>
+        <v>43845</v>
       </c>
       <c r="B10">
-        <v>2.3010000000000002</v>
+        <v>2.6360000000000001</v>
       </c>
       <c r="C10">
-        <v>5.4374287410172943</v>
+        <v>6.4491436222269165</v>
       </c>
       <c r="D10">
-        <v>0.88086549672183267</v>
+        <v>1.4192268673440029</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>42078</v>
+        <v>43814</v>
       </c>
       <c r="B11">
-        <v>2.5459999999999998</v>
+        <v>2.645</v>
       </c>
       <c r="C11">
-        <v>5.6325557125223042</v>
+        <v>6.3108833227798646</v>
       </c>
       <c r="D11">
-        <v>0.9620625955816664</v>
+        <v>1.413977761963165</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>42109</v>
+        <v>43784</v>
       </c>
       <c r="B12">
-        <v>2.5550000000000002</v>
+        <v>2.6930000000000001</v>
       </c>
       <c r="C12">
-        <v>5.7089174521511561</v>
+        <v>6.3732990938736975</v>
       </c>
       <c r="D12">
-        <v>0.92121799433702267</v>
+        <v>1.4192268673440029</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>42139</v>
+        <v>43753</v>
       </c>
       <c r="B13">
-        <v>2.802</v>
+        <v>2.7240000000000002</v>
       </c>
       <c r="C13">
-        <v>5.8713416863346595</v>
+        <v>6.4454959900859743</v>
       </c>
       <c r="D13">
-        <v>0.9620625955816664</v>
+        <v>1.4123374165316536</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>42170</v>
+        <v>43723</v>
       </c>
       <c r="B14">
-        <v>2.8849999999999998</v>
+        <v>2.681</v>
       </c>
       <c r="C14">
-        <v>5.9041475025122132</v>
+        <v>6.4417382502540352</v>
       </c>
       <c r="D14">
-        <v>0.95714155928713096</v>
+        <v>1.4090567256686333</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>42200</v>
+        <v>43692</v>
       </c>
       <c r="B15">
-        <v>2.88</v>
+        <v>2.7069999999999999</v>
       </c>
       <c r="C15">
-        <v>5.9045023778743184</v>
+        <v>6.5185914616764729</v>
       </c>
       <c r="D15">
-        <v>0.92515482337265098</v>
+        <v>1.430348409369653</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>42231</v>
+        <v>43661</v>
       </c>
       <c r="B16">
-        <v>2.726</v>
+        <v>2.823</v>
       </c>
       <c r="C16">
-        <v>5.8070647657518988</v>
+        <v>6.4615156512012684</v>
       </c>
       <c r="D16">
-        <v>0.93106006692609344</v>
+        <v>1.407416380237118</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>42262</v>
+        <v>43631</v>
       </c>
       <c r="B17">
-        <v>2.4620000000000002</v>
+        <v>2.8039999999999998</v>
       </c>
       <c r="C17">
-        <v>5.6554381879352453</v>
+        <v>6.4739844617209314</v>
       </c>
       <c r="D17">
-        <v>0.9113759217479519</v>
+        <v>1.4192268673440029</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>42292</v>
+        <v>43600</v>
       </c>
       <c r="B18">
-        <v>2.387</v>
+        <v>2.9460000000000002</v>
       </c>
       <c r="C18">
-        <v>5.5237062308535778</v>
+        <v>6.4962582404297633</v>
       </c>
       <c r="D18">
-        <v>1.0649122541374558</v>
+        <v>1.4172584528261887</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>42323</v>
+        <v>43570</v>
       </c>
       <c r="B19">
-        <v>2.2599999999999998</v>
+        <v>2.8809999999999998</v>
       </c>
       <c r="C19">
-        <v>5.4396470624737505</v>
+        <v>6.2946879935536106</v>
       </c>
       <c r="D19">
-        <v>1.0112729585270201</v>
+        <v>1.4238198345522357</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>42353</v>
+        <v>43539</v>
       </c>
       <c r="B20">
-        <v>2.1440000000000001</v>
+        <v>2.5939999999999999</v>
       </c>
       <c r="C20">
-        <v>5.2590884683178354</v>
+        <v>6.1078364738709459</v>
       </c>
       <c r="D20">
-        <v>1.1296730917735414</v>
+        <v>1.4172584528261887</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>42384</v>
+        <v>43511</v>
       </c>
       <c r="B21">
-        <v>2.0569999999999999</v>
+        <v>2.3929999999999998</v>
       </c>
       <c r="C21">
-        <v>5.1608345269304552</v>
+        <v>6.0288625677501173</v>
       </c>
       <c r="D21">
-        <v>0.98027042987144719</v>
+        <v>1.4221794891207242</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>42415</v>
+        <v>43480</v>
       </c>
       <c r="B22">
-        <v>1.8720000000000001</v>
+        <v>2.3380000000000001</v>
       </c>
       <c r="C22">
-        <v>5.1435958521811802</v>
+        <v>6.0593768068763385</v>
       </c>
       <c r="D22">
-        <v>0.91236012900685903</v>
+        <v>1.4192268673440029</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>42444</v>
+        <v>43449</v>
       </c>
       <c r="B23">
-        <v>2.0710000000000002</v>
+        <v>2.4569999999999999</v>
       </c>
       <c r="C23">
-        <v>5.1600468956166452</v>
+        <v>6.1363027139660842</v>
       </c>
       <c r="D23">
-        <v>1.0324334145935223</v>
+        <v>1.4266084217858059</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>42475</v>
+        <v>43419</v>
       </c>
       <c r="B24">
-        <v>2.2160000000000002</v>
+        <v>2.7360000000000002</v>
       </c>
       <c r="C24">
-        <v>5.3992630980931571</v>
+        <v>6.5237369669779124</v>
       </c>
       <c r="D24">
-        <v>1.0531017670305709</v>
+        <v>1.4211952818618172</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>42505</v>
+        <v>43388</v>
       </c>
       <c r="B25">
-        <v>2.371</v>
+        <v>2.9430000000000001</v>
       </c>
       <c r="C25">
-        <v>5.5002691658465395</v>
+        <v>6.6389053681776931</v>
       </c>
       <c r="D25">
-        <v>1.4271005254152596</v>
+        <v>1.4227700134760684</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>42536</v>
+        <v>43358</v>
       </c>
       <c r="B26">
-        <v>2.4670000000000001</v>
+        <v>2.915</v>
       </c>
       <c r="C26">
-        <v>5.6285667965075428</v>
+        <v>6.6322951518312729</v>
       </c>
       <c r="D26">
-        <v>1.4271005254152596</v>
+        <v>1.4172584528261887</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>42566</v>
+        <v>43327</v>
       </c>
       <c r="B27">
-        <v>2.3450000000000002</v>
+        <v>2.9140000000000001</v>
       </c>
       <c r="C27">
-        <v>5.664048165106963</v>
+        <v>6.5239897209537236</v>
       </c>
       <c r="D27">
-        <v>1.4271005254152596</v>
+        <v>1.4231636963796312</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>42597</v>
+        <v>43296</v>
       </c>
       <c r="B28">
-        <v>2.2839999999999998</v>
+        <v>2.9279999999999999</v>
       </c>
       <c r="C28">
-        <v>5.5314896881304616</v>
+        <v>6.4733544368207072</v>
       </c>
       <c r="D28">
         <v>1.4271005254152596</v>
@@ -821,55 +823,55 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>42628</v>
+        <v>43266</v>
       </c>
       <c r="B29">
-        <v>2.327</v>
+        <v>2.97</v>
       </c>
       <c r="C29">
-        <v>5.6411305350609444</v>
+        <v>6.4899486614583841</v>
       </c>
       <c r="D29">
-        <v>1.4103690020138395</v>
+        <v>1.4221794891207242</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>42658</v>
+        <v>43235</v>
       </c>
       <c r="B30">
-        <v>2.359</v>
+        <v>2.9870000000000001</v>
       </c>
       <c r="C30">
-        <v>5.7600300593066223</v>
+        <v>6.3238028553041357</v>
       </c>
       <c r="D30">
-        <v>1.4398952197810517</v>
+        <v>1.4267068425116969</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>42689</v>
+        <v>43205</v>
       </c>
       <c r="B31">
-        <v>2.2949999999999999</v>
+        <v>2.8730000000000002</v>
       </c>
       <c r="C31">
-        <v>5.8781823126967572</v>
+        <v>6.116060411440623</v>
       </c>
       <c r="D31">
-        <v>1.4231636963796312</v>
+        <v>1.4266084217858059</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>42719</v>
+        <v>43174</v>
       </c>
       <c r="B32">
-        <v>2.3660000000000001</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="C32">
-        <v>5.7862676094821701</v>
+        <v>6.0417650804042689</v>
       </c>
       <c r="D32">
         <v>1.4271005254152596</v>
@@ -877,209 +879,209 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>42750</v>
+        <v>43146</v>
       </c>
       <c r="B33">
-        <v>2.4580000000000002</v>
+        <v>2.7050000000000001</v>
       </c>
       <c r="C33">
-        <v>6.0207469320661566</v>
+        <v>6.1600749805786394</v>
       </c>
       <c r="D33">
-        <v>1.4192268673440029</v>
+        <v>1.4271005254152596</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>42781</v>
+        <v>43115</v>
       </c>
       <c r="B34">
-        <v>2.4159999999999999</v>
+        <v>2.6709999999999998</v>
       </c>
       <c r="C34">
-        <v>6.0799684106290535</v>
+        <v>6.145842149646608</v>
       </c>
       <c r="D34">
-        <v>1.4271005254152596</v>
+        <v>1.574731614251321</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>42809</v>
+        <v>43084</v>
       </c>
       <c r="B35">
-        <v>2.4369999999999998</v>
+        <v>2.5939999999999999</v>
       </c>
       <c r="C35">
-        <v>6.0560013930318117</v>
+        <v>6.0866369019199125</v>
       </c>
       <c r="D35">
-        <v>1.4271005254152596</v>
+        <v>1.4421917033851681</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>42840</v>
+        <v>43054</v>
       </c>
       <c r="B36">
-        <v>2.528</v>
+        <v>2.6779999999999999</v>
       </c>
       <c r="C36">
-        <v>5.950069267601271</v>
+        <v>6.0425523247506874</v>
       </c>
       <c r="D36">
-        <v>1.4271005254152596</v>
+        <v>1.4172584528261887</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>42870</v>
+        <v>43023</v>
       </c>
       <c r="B37">
-        <v>2.5030000000000001</v>
+        <v>2.621</v>
       </c>
       <c r="C37">
-        <v>5.8597581573493009</v>
+        <v>5.9423806130897692</v>
       </c>
       <c r="D37">
-        <v>1.4271005254152596</v>
+        <v>1.4172584528261887</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>42901</v>
+        <v>42993</v>
       </c>
       <c r="B38">
-        <v>2.46</v>
+        <v>2.7610000000000001</v>
       </c>
       <c r="C38">
-        <v>5.8611392360056511</v>
+        <v>6.032861502767342</v>
       </c>
       <c r="D38">
-        <v>1.4271005254152596</v>
+        <v>1.3975743076480474</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>42931</v>
+        <v>42962</v>
       </c>
       <c r="B39">
-        <v>2.4140000000000001</v>
+        <v>2.4940000000000002</v>
       </c>
       <c r="C39">
-        <v>5.7777539690109476</v>
+        <v>5.8658180588078528</v>
       </c>
       <c r="D39">
-        <v>1.4271005254152596</v>
+        <v>1.4123374165316536</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>42962</v>
+        <v>42931</v>
       </c>
       <c r="B40">
-        <v>2.4940000000000002</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="C40">
-        <v>5.8658180588078528</v>
+        <v>5.7777539690109476</v>
       </c>
       <c r="D40">
-        <v>1.4123374165316536</v>
+        <v>1.4271005254152596</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>42993</v>
+        <v>42901</v>
       </c>
       <c r="B41">
-        <v>2.7610000000000001</v>
+        <v>2.46</v>
       </c>
       <c r="C41">
-        <v>6.032861502767342</v>
+        <v>5.8611392360056511</v>
       </c>
       <c r="D41">
-        <v>1.3975743076480474</v>
+        <v>1.4271005254152596</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>43023</v>
+        <v>42870</v>
       </c>
       <c r="B42">
-        <v>2.621</v>
+        <v>2.5030000000000001</v>
       </c>
       <c r="C42">
-        <v>5.9423806130897692</v>
+        <v>5.8597581573493009</v>
       </c>
       <c r="D42">
-        <v>1.4172584528261887</v>
+        <v>1.4271005254152596</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>43054</v>
+        <v>42840</v>
       </c>
       <c r="B43">
-        <v>2.6779999999999999</v>
+        <v>2.528</v>
       </c>
       <c r="C43">
-        <v>6.0425523247506874</v>
+        <v>5.950069267601271</v>
       </c>
       <c r="D43">
-        <v>1.4172584528261887</v>
+        <v>1.4271005254152596</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>43084</v>
+        <v>42809</v>
       </c>
       <c r="B44">
-        <v>2.5939999999999999</v>
+        <v>2.4369999999999998</v>
       </c>
       <c r="C44">
-        <v>6.0866369019199125</v>
+        <v>6.0560013930318117</v>
       </c>
       <c r="D44">
-        <v>1.4421917033851681</v>
+        <v>1.4271005254152596</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>43115</v>
+        <v>42781</v>
       </c>
       <c r="B45">
-        <v>2.6709999999999998</v>
+        <v>2.4159999999999999</v>
       </c>
       <c r="C45">
-        <v>6.145842149646608</v>
+        <v>6.0799684106290535</v>
       </c>
       <c r="D45">
-        <v>1.574731614251321</v>
+        <v>1.4271005254152596</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>43146</v>
+        <v>42750</v>
       </c>
       <c r="B46">
-        <v>2.7050000000000001</v>
+        <v>2.4580000000000002</v>
       </c>
       <c r="C46">
-        <v>6.1600749805786394</v>
+        <v>6.0207469320661566</v>
       </c>
       <c r="D46">
-        <v>1.4271005254152596</v>
+        <v>1.4192268673440029</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>43174</v>
+        <v>42719</v>
       </c>
       <c r="B47">
-        <v>2.7090000000000001</v>
+        <v>2.3660000000000001</v>
       </c>
       <c r="C47">
-        <v>6.0417650804042689</v>
+        <v>5.7862676094821701</v>
       </c>
       <c r="D47">
         <v>1.4271005254152596</v>
@@ -1087,55 +1089,55 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>43205</v>
+        <v>42689</v>
       </c>
       <c r="B48">
-        <v>2.8730000000000002</v>
+        <v>2.2949999999999999</v>
       </c>
       <c r="C48">
-        <v>6.116060411440623</v>
+        <v>5.8781823126967572</v>
       </c>
       <c r="D48">
-        <v>1.4266084217858059</v>
+        <v>1.4231636963796312</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>43235</v>
+        <v>42658</v>
       </c>
       <c r="B49">
-        <v>2.9870000000000001</v>
+        <v>2.359</v>
       </c>
       <c r="C49">
-        <v>6.3238028553041357</v>
+        <v>5.7600300593066223</v>
       </c>
       <c r="D49">
-        <v>1.4267068425116969</v>
+        <v>1.4398952197810517</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>43266</v>
+        <v>42628</v>
       </c>
       <c r="B50">
-        <v>2.97</v>
+        <v>2.327</v>
       </c>
       <c r="C50">
-        <v>6.4899486614583841</v>
+        <v>5.6411305350609444</v>
       </c>
       <c r="D50">
-        <v>1.4221794891207242</v>
+        <v>1.4103690020138395</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>43296</v>
+        <v>42597</v>
       </c>
       <c r="B51">
-        <v>2.9279999999999999</v>
+        <v>2.2839999999999998</v>
       </c>
       <c r="C51">
-        <v>6.4733544368207072</v>
+        <v>5.5314896881304616</v>
       </c>
       <c r="D51">
         <v>1.4271005254152596</v>
@@ -1143,366 +1145,366 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>43327</v>
+        <v>42566</v>
       </c>
       <c r="B52">
-        <v>2.9140000000000001</v>
+        <v>2.3450000000000002</v>
       </c>
       <c r="C52">
-        <v>6.5239897209537236</v>
+        <v>5.664048165106963</v>
       </c>
       <c r="D52">
-        <v>1.4231636963796312</v>
+        <v>1.4271005254152596</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>43358</v>
+        <v>42536</v>
       </c>
       <c r="B53">
-        <v>2.915</v>
+        <v>2.4670000000000001</v>
       </c>
       <c r="C53">
-        <v>6.6322951518312729</v>
+        <v>5.6285667965075428</v>
       </c>
       <c r="D53">
-        <v>1.4172584528261887</v>
+        <v>1.4271005254152596</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>43388</v>
+        <v>42505</v>
       </c>
       <c r="B54">
-        <v>2.9430000000000001</v>
+        <v>2.371</v>
       </c>
       <c r="C54">
-        <v>6.6389053681776931</v>
+        <v>5.5002691658465395</v>
       </c>
       <c r="D54">
-        <v>1.4227700134760684</v>
+        <v>1.4271005254152596</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>43419</v>
+        <v>42475</v>
       </c>
       <c r="B55">
-        <v>2.7360000000000002</v>
+        <v>2.2160000000000002</v>
       </c>
       <c r="C55">
-        <v>6.5237369669779124</v>
+        <v>5.3992630980931571</v>
       </c>
       <c r="D55">
-        <v>1.4211952818618172</v>
+        <v>1.0531017670305709</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>43449</v>
+        <v>42444</v>
       </c>
       <c r="B56">
-        <v>2.4569999999999999</v>
+        <v>2.0710000000000002</v>
       </c>
       <c r="C56">
-        <v>6.1363027139660842</v>
+        <v>5.1600468956166452</v>
       </c>
       <c r="D56">
-        <v>1.4266084217858059</v>
+        <v>1.0324334145935223</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>43480</v>
+        <v>42415</v>
       </c>
       <c r="B57">
-        <v>2.3380000000000001</v>
+        <v>1.8720000000000001</v>
       </c>
       <c r="C57">
-        <v>6.0593768068763385</v>
+        <v>5.1435958521811802</v>
       </c>
       <c r="D57">
-        <v>1.4192268673440029</v>
+        <v>0.91236012900685903</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>43511</v>
+        <v>42384</v>
       </c>
       <c r="B58">
-        <v>2.3929999999999998</v>
+        <v>2.0569999999999999</v>
       </c>
       <c r="C58">
-        <v>6.0288625677501173</v>
+        <v>5.1608345269304552</v>
       </c>
       <c r="D58">
-        <v>1.4221794891207242</v>
+        <v>0.98027042987144719</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>43539</v>
+        <v>42353</v>
       </c>
       <c r="B59">
-        <v>2.5939999999999999</v>
+        <v>2.1440000000000001</v>
       </c>
       <c r="C59">
-        <v>6.1078364738709459</v>
+        <v>5.2590884683178354</v>
       </c>
       <c r="D59">
-        <v>1.4172584528261887</v>
+        <v>1.1296730917735414</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>43570</v>
+        <v>42323</v>
       </c>
       <c r="B60">
-        <v>2.8809999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C60">
-        <v>6.2946879935536106</v>
+        <v>5.4396470624737505</v>
       </c>
       <c r="D60">
-        <v>1.4238198345522357</v>
+        <v>1.0112729585270201</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>43600</v>
+        <v>42292</v>
       </c>
       <c r="B61">
-        <v>2.9460000000000002</v>
+        <v>2.387</v>
       </c>
       <c r="C61">
-        <v>6.4962582404297633</v>
+        <v>5.5237062308535778</v>
       </c>
       <c r="D61">
-        <v>1.4172584528261887</v>
+        <v>1.0649122541374558</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>43631</v>
+        <v>42262</v>
       </c>
       <c r="B62">
-        <v>2.8039999999999998</v>
+        <v>2.4620000000000002</v>
       </c>
       <c r="C62">
-        <v>6.4739844617209314</v>
+        <v>5.6554381879352453</v>
       </c>
       <c r="D62">
-        <v>1.4192268673440029</v>
+        <v>0.9113759217479519</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>43661</v>
+        <v>42231</v>
       </c>
       <c r="B63">
-        <v>2.823</v>
+        <v>2.726</v>
       </c>
       <c r="C63">
-        <v>6.4615156512012684</v>
+        <v>5.8070647657518988</v>
       </c>
       <c r="D63">
-        <v>1.407416380237118</v>
+        <v>0.93106006692609344</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>43692</v>
+        <v>42200</v>
       </c>
       <c r="B64">
-        <v>2.7069999999999999</v>
+        <v>2.88</v>
       </c>
       <c r="C64">
-        <v>6.5185914616764729</v>
+        <v>5.9045023778743184</v>
       </c>
       <c r="D64">
-        <v>1.430348409369653</v>
+        <v>0.92515482337265098</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>43723</v>
+        <v>42170</v>
       </c>
       <c r="B65">
-        <v>2.681</v>
+        <v>2.8849999999999998</v>
       </c>
       <c r="C65">
-        <v>6.4417382502540352</v>
+        <v>5.9041475025122132</v>
       </c>
       <c r="D65">
-        <v>1.4090567256686333</v>
+        <v>0.95714155928713096</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>43753</v>
+        <v>42139</v>
       </c>
       <c r="B66">
-        <v>2.7240000000000002</v>
+        <v>2.802</v>
       </c>
       <c r="C66">
-        <v>6.4454959900859743</v>
+        <v>5.8713416863346595</v>
       </c>
       <c r="D66">
-        <v>1.4123374165316536</v>
+        <v>0.9620625955816664</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>43784</v>
+        <v>42109</v>
       </c>
       <c r="B67">
-        <v>2.6930000000000001</v>
+        <v>2.5550000000000002</v>
       </c>
       <c r="C67">
-        <v>6.3732990938736975</v>
+        <v>5.7089174521511561</v>
       </c>
       <c r="D67">
-        <v>1.4192268673440029</v>
+        <v>0.92121799433702267</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>43814</v>
+        <v>42078</v>
       </c>
       <c r="B68">
-        <v>2.645</v>
+        <v>2.5459999999999998</v>
       </c>
       <c r="C68">
-        <v>6.3108833227798646</v>
+        <v>5.6325557125223042</v>
       </c>
       <c r="D68">
-        <v>1.413977761963165</v>
+        <v>0.9620625955816664</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>43845</v>
+        <v>42050</v>
       </c>
       <c r="B69">
-        <v>2.6360000000000001</v>
+        <v>2.3010000000000002</v>
       </c>
       <c r="C69">
-        <v>6.4491436222269165</v>
+        <v>5.4374287410172943</v>
       </c>
       <c r="D69">
-        <v>1.4192268673440029</v>
+        <v>0.88086549672183267</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>43876</v>
+        <v>42019</v>
       </c>
       <c r="B70">
-        <v>2.5329999999999999</v>
+        <v>2.2080000000000002</v>
       </c>
       <c r="C70">
-        <v>6.2683886416624253</v>
+        <v>5.5008260167512377</v>
       </c>
       <c r="D70">
-        <v>1.413977761963165</v>
+        <v>0.9546810411398633</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>43905</v>
+        <v>41988</v>
       </c>
       <c r="B71">
-        <v>2.3290000000000002</v>
+        <v>2.6320000000000001</v>
       </c>
       <c r="C71">
-        <v>6.0990778841797759</v>
+        <v>5.8953080197213081</v>
       </c>
       <c r="D71">
-        <v>1.4271005254152596</v>
+        <v>0.9546810411398633</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>43936</v>
+        <v>41958</v>
       </c>
       <c r="B72">
-        <v>1.9379999999999999</v>
+        <v>2.9969999999999999</v>
       </c>
       <c r="C72">
-        <v>5.5274644390675034</v>
+        <v>6.2125914861521627</v>
       </c>
       <c r="D72">
-        <v>1.2302590736338446</v>
+        <v>0.9546810411398633</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>43966</v>
+        <v>41927</v>
       </c>
       <c r="B73">
-        <v>1.9610000000000001</v>
+        <v>3.2549999999999999</v>
       </c>
       <c r="C73">
-        <v>5.3148937098259816</v>
+        <v>6.429726863232947</v>
       </c>
       <c r="D73">
-        <v>1.2154959647502384</v>
+        <v>0.9546810411398633</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>43997</v>
+        <v>41897</v>
       </c>
       <c r="B74">
-        <v>2.17</v>
+        <v>3.484</v>
       </c>
       <c r="C74">
-        <v>5.3684167834341912</v>
+        <v>6.5187937006720693</v>
       </c>
       <c r="D74">
-        <v>1.2460063897763576</v>
+        <v>0.9546810411398633</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>44027</v>
+        <v>41866</v>
       </c>
       <c r="B75">
-        <v>2.2719999999999998</v>
+        <v>3.5649999999999999</v>
       </c>
       <c r="C75">
-        <v>5.6378963556853643</v>
+        <v>6.5571590289634498</v>
       </c>
       <c r="D75">
-        <v>1.4192268673440029</v>
+        <v>0.9546810411398633</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>44058</v>
+        <v>41835</v>
       </c>
       <c r="B76">
-        <v>2.2719999999999998</v>
+        <v>3.6880000000000002</v>
       </c>
       <c r="C76">
-        <v>5.7199675158870189</v>
+        <v>6.6510159991285471</v>
       </c>
       <c r="D76">
-        <v>1.4487530851112151</v>
+        <v>0.9546810411398633</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <v>44089</v>
+        <v>41805</v>
       </c>
       <c r="B77">
-        <v>2.274</v>
+        <v>3.766</v>
       </c>
       <c r="C77">
-        <v>5.7426209358437088</v>
+        <v>6.5789098996108599</v>
       </c>
       <c r="D77">
-        <v>1.5771921323985885</v>
+        <v>0.9546810411398633</v>
       </c>
     </row>
   </sheetData>
